--- a/LED_cube/LED laypout.xlsx
+++ b/LED_cube/LED laypout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\hwe_dev\LED_cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D342E952-5ECD-4BA3-B544-238D8D1F460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010220C1-A7A5-4D78-827E-8E98F8BF499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5FF34037-2009-4D9D-8534-48F036B9AF84}"/>
+    <workbookView xWindow="4275" yWindow="-13200" windowWidth="21600" windowHeight="11295" xr2:uid="{5FF34037-2009-4D9D-8534-48F036B9AF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,22 +305,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8719,16 +8718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>102705</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>226587</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>170622</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>310301</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>54962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9109,20 +9108,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDCCF-805E-4B1D-BF28-D939C36A675F}">
-  <dimension ref="C6:AY193"/>
+  <dimension ref="C6:AY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" topLeftCell="C169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="24" max="24" width="25.5703125" customWidth="1"/>
@@ -9199,36 +9200,68 @@
         <v>7</v>
       </c>
       <c r="Z9" s="6">
-        <f t="shared" ref="Z9:Z15" si="1">IF(AR9&lt;8,AR9, 15-AR9)</f>
+        <f>IF(AR9&lt;8,AR9, 15-AR9)</f>
         <v>7</v>
       </c>
       <c r="AA9" s="6">
-        <f t="shared" ref="AA9:AA15" si="2">IF(AS9&lt;8,AS9, 15-AS9)</f>
+        <f t="shared" ref="AA9:AA15" si="1">IF(AS9&lt;8,AS9, 15-AS9)</f>
         <v>7</v>
       </c>
       <c r="AB9" s="6">
-        <f t="shared" ref="AB9:AB15" si="3">IF(AT9&lt;8,AT9, 15-AT9)</f>
+        <f t="shared" ref="AB9:AB15" si="2">IF(AT9&lt;8,AT9, 15-AT9)</f>
         <v>7</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" ref="AC9:AC15" si="4">IF(AU9&lt;8,AU9, 15-AU9)</f>
+        <f t="shared" ref="AC9:AC15" si="3">IF(AU9&lt;8,AU9, 15-AU9)</f>
         <v>7</v>
       </c>
       <c r="AD9" s="6">
-        <f t="shared" ref="AD9:AD15" si="5">IF(AV9&lt;8,AV9, 15-AV9)</f>
+        <f t="shared" ref="AD9:AD15" si="4">IF(AV9&lt;8,AV9, 15-AV9)</f>
         <v>7</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" ref="AE9:AE15" si="6">IF(AW9&lt;8,AW9, 15-AW9)</f>
+        <f t="shared" ref="AE9:AE15" si="5">IF(AW9&lt;8,AW9, 15-AW9)</f>
         <v>7</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" ref="AF9:AF15" si="7">IF(AX9&lt;8,AX9, 15-AX9)</f>
+        <f t="shared" ref="AF9:AF15" si="6">IF(AX9&lt;8,AX9, 15-AX9)</f>
         <v>7</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" ref="AG9:AG15" si="8">IF(AY9&lt;8,AY9, 15-AY9)</f>
+        <f t="shared" ref="AG9:AG15" si="7">IF(AY9&lt;8,AY9, 15-AY9)</f>
         <v>7</v>
+      </c>
+      <c r="AI9" s="6">
+        <f>8*O9+Z9</f>
+        <v>7</v>
+      </c>
+      <c r="AJ9" s="6">
+        <f t="shared" ref="AJ9:AP9" si="8">8*P9+AA9</f>
+        <v>15</v>
+      </c>
+      <c r="AK9" s="6">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="AL9" s="6">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AM9" s="6">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AN9" s="6">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AO9" s="6">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="AP9" s="6">
+        <f t="shared" si="8"/>
+        <v>63</v>
       </c>
       <c r="AR9">
         <f t="shared" ref="AR9:AR15" si="9">MOD(D9,16)</f>
@@ -9321,36 +9354,68 @@
         <v>7</v>
       </c>
       <c r="Z10" s="6">
+        <f t="shared" ref="Z10:Z15" si="25">IF(AR10&lt;8,AR10, 15-AR10)</f>
+        <v>6</v>
+      </c>
+      <c r="AA10" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AB10" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AC10" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AD10" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AF10" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AG10" s="6">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AG10" s="6">
-        <f t="shared" si="8"/>
+      <c r="AI10" s="6">
+        <f t="shared" ref="AI10:AI16" si="26">8*O10+Z10</f>
         <v>6</v>
+      </c>
+      <c r="AJ10" s="6">
+        <f t="shared" ref="AJ10:AJ16" si="27">8*P10+AA10</f>
+        <v>14</v>
+      </c>
+      <c r="AK10" s="6">
+        <f t="shared" ref="AK10:AK16" si="28">8*Q10+AB10</f>
+        <v>22</v>
+      </c>
+      <c r="AL10" s="6">
+        <f t="shared" ref="AL10:AL16" si="29">8*R10+AC10</f>
+        <v>30</v>
+      </c>
+      <c r="AM10" s="6">
+        <f t="shared" ref="AM10:AM16" si="30">8*S10+AD10</f>
+        <v>38</v>
+      </c>
+      <c r="AN10" s="6">
+        <f t="shared" ref="AN10:AN16" si="31">8*T10+AE10</f>
+        <v>46</v>
+      </c>
+      <c r="AO10" s="6">
+        <f t="shared" ref="AO10:AO16" si="32">8*U10+AF10</f>
+        <v>54</v>
+      </c>
+      <c r="AP10" s="6">
+        <f t="shared" ref="AP10:AP16" si="33">8*V10+AG10</f>
+        <v>62</v>
       </c>
       <c r="AR10">
         <f t="shared" si="9"/>
@@ -9443,36 +9508,68 @@
         <v>7</v>
       </c>
       <c r="Z11" s="6">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="AA11" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AB11" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AC11" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AD11" s="6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AE11" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AF11" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AG11" s="6">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AG11" s="6">
-        <f t="shared" si="8"/>
+      <c r="AI11" s="6">
+        <f t="shared" si="26"/>
         <v>5</v>
+      </c>
+      <c r="AJ11" s="6">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AK11" s="6">
+        <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="AL11" s="6">
+        <f t="shared" si="29"/>
+        <v>29</v>
+      </c>
+      <c r="AM11" s="6">
+        <f t="shared" si="30"/>
+        <v>37</v>
+      </c>
+      <c r="AN11" s="6">
+        <f t="shared" si="31"/>
+        <v>45</v>
+      </c>
+      <c r="AO11" s="6">
+        <f t="shared" si="32"/>
+        <v>53</v>
+      </c>
+      <c r="AP11" s="6">
+        <f t="shared" si="33"/>
+        <v>61</v>
       </c>
       <c r="AR11">
         <f t="shared" si="9"/>
@@ -9565,36 +9662,68 @@
         <v>7</v>
       </c>
       <c r="Z12" s="6">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="AA12" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AB12" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AC12" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AD12" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AE12" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AF12" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AG12" s="6">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AG12" s="6">
-        <f t="shared" si="8"/>
+      <c r="AI12" s="6">
+        <f t="shared" si="26"/>
         <v>4</v>
+      </c>
+      <c r="AJ12" s="6">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="AK12" s="6">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="AL12" s="6">
+        <f t="shared" si="29"/>
+        <v>28</v>
+      </c>
+      <c r="AM12" s="6">
+        <f t="shared" si="30"/>
+        <v>36</v>
+      </c>
+      <c r="AN12" s="6">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="AO12" s="6">
+        <f t="shared" si="32"/>
+        <v>52</v>
+      </c>
+      <c r="AP12" s="6">
+        <f t="shared" si="33"/>
+        <v>60</v>
       </c>
       <c r="AR12">
         <f t="shared" si="9"/>
@@ -9687,36 +9816,68 @@
         <v>7</v>
       </c>
       <c r="Z13" s="6">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="AA13" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AB13" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AC13" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AD13" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AE13" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AF13" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AG13" s="6">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AG13" s="6">
-        <f t="shared" si="8"/>
+      <c r="AI13" s="6">
+        <f t="shared" si="26"/>
         <v>3</v>
+      </c>
+      <c r="AJ13" s="6">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="AK13" s="6">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="AL13" s="6">
+        <f t="shared" si="29"/>
+        <v>27</v>
+      </c>
+      <c r="AM13" s="6">
+        <f t="shared" si="30"/>
+        <v>35</v>
+      </c>
+      <c r="AN13" s="6">
+        <f t="shared" si="31"/>
+        <v>43</v>
+      </c>
+      <c r="AO13" s="6">
+        <f t="shared" si="32"/>
+        <v>51</v>
+      </c>
+      <c r="AP13" s="6">
+        <f t="shared" si="33"/>
+        <v>59</v>
       </c>
       <c r="AR13">
         <f t="shared" si="9"/>
@@ -9809,36 +9970,68 @@
         <v>7</v>
       </c>
       <c r="Z14" s="6">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AB14" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AC14" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AD14" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AE14" s="6">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AF14" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AG14" s="6">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AG14" s="6">
-        <f t="shared" si="8"/>
+      <c r="AI14" s="6">
+        <f t="shared" si="26"/>
         <v>2</v>
+      </c>
+      <c r="AJ14" s="6">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="AK14" s="6">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="AL14" s="6">
+        <f t="shared" si="29"/>
+        <v>26</v>
+      </c>
+      <c r="AM14" s="6">
+        <f t="shared" si="30"/>
+        <v>34</v>
+      </c>
+      <c r="AN14" s="6">
+        <f t="shared" si="31"/>
+        <v>42</v>
+      </c>
+      <c r="AO14" s="6">
+        <f t="shared" si="32"/>
+        <v>50</v>
+      </c>
+      <c r="AP14" s="6">
+        <f t="shared" si="33"/>
+        <v>58</v>
       </c>
       <c r="AR14">
         <f t="shared" si="9"/>
@@ -9931,36 +10124,68 @@
         <v>7</v>
       </c>
       <c r="Z15" s="6">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AB15" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AC15" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AD15" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AE15" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AF15" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AG15" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AG15" s="6">
-        <f t="shared" si="8"/>
+      <c r="AI15" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
+      </c>
+      <c r="AJ15" s="6">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="AK15" s="6">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="AL15" s="6">
+        <f t="shared" si="29"/>
+        <v>25</v>
+      </c>
+      <c r="AM15" s="6">
+        <f t="shared" si="30"/>
+        <v>33</v>
+      </c>
+      <c r="AN15" s="6">
+        <f t="shared" si="31"/>
+        <v>41</v>
+      </c>
+      <c r="AO15" s="6">
+        <f t="shared" si="32"/>
+        <v>49</v>
+      </c>
+      <c r="AP15" s="6">
+        <f t="shared" si="33"/>
+        <v>57</v>
       </c>
       <c r="AR15">
         <f t="shared" si="9"/>
@@ -10057,68 +10282,100 @@
         <v>0</v>
       </c>
       <c r="AA16" s="6">
-        <f t="shared" ref="AA16:AG16" si="25">IF(AS16&lt;8,AS16, 15-AS16)</f>
+        <f t="shared" ref="AA16:AG16" si="34">IF(AS16&lt;8,AS16, 15-AS16)</f>
         <v>0</v>
       </c>
       <c r="AB16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="6">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="AK16" s="6">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="AL16" s="6">
+        <f t="shared" si="29"/>
+        <v>24</v>
+      </c>
+      <c r="AM16" s="6">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="AN16" s="6">
+        <f t="shared" si="31"/>
+        <v>40</v>
+      </c>
+      <c r="AO16" s="6">
+        <f t="shared" si="32"/>
+        <v>48</v>
+      </c>
+      <c r="AP16" s="6">
+        <f t="shared" si="33"/>
+        <v>56</v>
       </c>
       <c r="AR16">
         <f>MOD(D16,16)</f>
         <v>0</v>
       </c>
       <c r="AS16">
-        <f t="shared" ref="AS16:AY16" si="26">MOD(E16,16)</f>
+        <f t="shared" ref="AS16:AY16" si="35">MOD(E16,16)</f>
         <v>15</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="4:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="11" t="s">
         <v>10</v>
       </c>
@@ -10134,7 +10391,7 @@
       <c r="H20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="27" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="13" t="s">
@@ -10143,11 +10400,15 @@
       <c r="M20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>SUM(G21:G27)</f>
+        <v>583</v>
+      </c>
       <c r="D21" s="14" t="s">
         <v>8</v>
       </c>
@@ -10165,798 +10426,814 @@
         <v>-40</v>
       </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="24">
+      <c r="J21" s="22">
         <f>IF(G21&gt;100,G21,0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="22">
         <v>3084</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>45537</v>
       </c>
-      <c r="G22" s="19">
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
-        <f t="shared" ref="H22:H85" si="27">(G21-G23)/2</f>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" ref="H22:H85" si="36">(G21-G23)/2</f>
         <v>-7</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" ref="I22:I85" si="28">IF(AND(G22&gt;G21,G22&gt;G23,G22&gt;100),G22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="24">
-        <f t="shared" ref="J22:J85" si="29">IF(G22&gt;100,G22,0)</f>
+        <f t="shared" ref="I22:I85" si="37">IF(AND(G22&gt;G21,G22&gt;G23,G22&gt;100),G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" ref="J22:J85" si="38">IF(G22&gt;100,G22,0)</f>
         <v>0</v>
       </c>
       <c r="M22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="22">
         <v>2715</v>
       </c>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>45538</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23">
         <v>54</v>
       </c>
-      <c r="H23" s="24">
-        <f t="shared" si="27"/>
+      <c r="H23" s="22">
+        <f t="shared" si="36"/>
         <v>-36.5</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="22">
         <v>2970</v>
       </c>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <v>45539</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24">
         <v>73</v>
       </c>
-      <c r="H24" s="24">
-        <f t="shared" si="27"/>
+      <c r="H24" s="22">
+        <f t="shared" si="36"/>
         <v>-11</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="22">
         <v>3258</v>
       </c>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>45540</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25">
         <v>76</v>
       </c>
-      <c r="H25" s="24">
-        <f t="shared" si="27"/>
+      <c r="H25" s="22">
+        <f t="shared" si="36"/>
         <v>-45</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="22">
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>45541</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26">
         <v>163</v>
       </c>
-      <c r="H26" s="24">
-        <f t="shared" si="27"/>
+      <c r="H26" s="22">
+        <f t="shared" si="36"/>
         <v>-50.5</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="38"/>
         <v>163</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="26">
         <v>2209</v>
       </c>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27">
         <v>7</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>45542</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27">
         <v>177</v>
       </c>
-      <c r="H27" s="24">
-        <f t="shared" si="27"/>
+      <c r="H27" s="22">
+        <f t="shared" si="36"/>
         <v>52.5</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>177</v>
       </c>
-      <c r="J27" s="24">
-        <f t="shared" si="29"/>
+      <c r="J27" s="22">
+        <f t="shared" si="38"/>
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>SUM(G28:G34)</f>
+        <v>844</v>
+      </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28">
         <v>8</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <v>45543</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28">
         <v>58</v>
       </c>
-      <c r="H28" s="24">
-        <f t="shared" si="27"/>
+      <c r="H28" s="22">
+        <f t="shared" si="36"/>
         <v>46.5</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29">
         <v>9</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>45544</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29">
         <v>84</v>
       </c>
-      <c r="H29" s="24">
-        <f t="shared" si="27"/>
+      <c r="H29" s="22">
+        <f t="shared" si="36"/>
         <v>-1.5</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30">
         <v>10</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="19">
         <v>45545</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30">
         <v>61</v>
       </c>
-      <c r="H30" s="24">
-        <f t="shared" si="27"/>
+      <c r="H30" s="22">
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31">
         <v>11</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>45546</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31">
         <v>92</v>
       </c>
-      <c r="H31" s="24">
-        <f t="shared" si="27"/>
+      <c r="H31" s="22">
+        <f t="shared" si="36"/>
         <v>-39.5</v>
       </c>
       <c r="I31" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32">
         <v>12</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="19">
         <v>45547</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32">
         <v>140</v>
       </c>
-      <c r="H32" s="24">
-        <f t="shared" si="27"/>
+      <c r="H32" s="22">
+        <f t="shared" si="36"/>
         <v>-43</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33">
         <v>13</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <v>45548</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33">
         <v>178</v>
       </c>
-      <c r="H33" s="24">
-        <f t="shared" si="27"/>
+      <c r="H33" s="22">
+        <f t="shared" si="36"/>
         <v>-45.5</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="38"/>
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34">
         <v>14</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>45549</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34">
         <v>231</v>
       </c>
-      <c r="H34" s="24">
-        <f t="shared" si="27"/>
+      <c r="H34" s="22">
+        <f t="shared" si="36"/>
         <v>65.5</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>231</v>
       </c>
-      <c r="J34" s="24">
-        <f t="shared" si="29"/>
+      <c r="J34" s="22">
+        <f t="shared" si="38"/>
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>SUM(G35:G41)</f>
+        <v>841</v>
+      </c>
       <c r="D35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35">
         <v>15</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="19">
         <v>45550</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35">
         <v>47</v>
       </c>
-      <c r="H35" s="24">
-        <f t="shared" si="27"/>
+      <c r="H35" s="22">
+        <f t="shared" si="36"/>
         <v>73.5</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36">
         <v>16</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="19">
         <v>45551</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36">
         <v>84</v>
       </c>
-      <c r="H36" s="24">
-        <f t="shared" si="27"/>
+      <c r="H36" s="22">
+        <f t="shared" si="36"/>
         <v>-32.5</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D37" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37">
         <v>17</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="19">
         <v>45552</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37">
         <v>112</v>
       </c>
-      <c r="H37" s="24">
-        <f t="shared" si="27"/>
+      <c r="H37" s="22">
+        <f t="shared" si="36"/>
         <v>-10</v>
       </c>
       <c r="I37" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>112</v>
       </c>
-      <c r="J37" s="24">
-        <f t="shared" si="29"/>
+      <c r="J37" s="22">
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38">
         <v>18</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="19">
         <v>45553</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38">
         <v>104</v>
       </c>
-      <c r="H38" s="24">
-        <f t="shared" si="27"/>
+      <c r="H38" s="22">
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="I38" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="38"/>
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39">
         <v>19</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="19">
         <v>45554</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39">
         <v>82</v>
       </c>
-      <c r="H39" s="24">
-        <f t="shared" si="27"/>
+      <c r="H39" s="22">
+        <f t="shared" si="36"/>
         <v>-38.5</v>
       </c>
       <c r="I39" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40">
         <v>20</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="19">
         <v>45555</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40">
         <v>181</v>
       </c>
-      <c r="H40" s="24">
-        <f t="shared" si="27"/>
+      <c r="H40" s="22">
+        <f t="shared" si="36"/>
         <v>-74.5</v>
       </c>
       <c r="I40" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="38"/>
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41">
         <v>21</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="19">
         <v>45556</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41">
         <v>231</v>
       </c>
-      <c r="H41" s="24">
-        <f t="shared" si="27"/>
+      <c r="H41" s="22">
+        <f t="shared" si="36"/>
         <v>58.5</v>
       </c>
       <c r="I41" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>231</v>
       </c>
-      <c r="J41" s="24">
-        <f t="shared" si="29"/>
+      <c r="J41" s="22">
+        <f t="shared" si="38"/>
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>SUM(G42:G48)</f>
+        <v>669</v>
+      </c>
       <c r="D42" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42">
         <v>22</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="19">
         <v>45557</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42">
         <v>64</v>
       </c>
-      <c r="H42" s="24">
-        <f t="shared" si="27"/>
+      <c r="H42" s="22">
+        <f t="shared" si="36"/>
         <v>86</v>
       </c>
       <c r="I42" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43">
         <v>23</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="19">
         <v>45558</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43">
         <v>59</v>
       </c>
-      <c r="H43" s="24">
-        <f t="shared" si="27"/>
+      <c r="H43" s="22">
+        <f t="shared" si="36"/>
         <v>5.5</v>
       </c>
       <c r="I43" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44">
         <v>24</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="19">
         <v>45559</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44">
         <v>53</v>
       </c>
-      <c r="H44" s="24">
-        <f t="shared" si="27"/>
+      <c r="H44" s="22">
+        <f t="shared" si="36"/>
         <v>-28.5</v>
       </c>
       <c r="I44" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45">
         <v>25</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="19">
         <v>45560</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45">
         <v>116</v>
       </c>
-      <c r="H45" s="24">
-        <f t="shared" si="27"/>
+      <c r="H45" s="22">
+        <f t="shared" si="36"/>
         <v>-15.5</v>
       </c>
       <c r="I45" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>116</v>
       </c>
-      <c r="J45" s="24">
-        <f t="shared" si="29"/>
+      <c r="J45" s="22">
+        <f t="shared" si="38"/>
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46">
         <v>26</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="19">
         <v>45561</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46">
         <v>84</v>
       </c>
-      <c r="H46" s="24">
-        <f t="shared" si="27"/>
+      <c r="H46" s="22">
+        <f t="shared" si="36"/>
         <v>-9.5</v>
       </c>
       <c r="I46" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47">
         <v>27</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="19">
         <v>45562</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47">
         <v>135</v>
       </c>
-      <c r="H47" s="24">
-        <f t="shared" si="27"/>
+      <c r="H47" s="22">
+        <f t="shared" si="36"/>
         <v>-37</v>
       </c>
       <c r="I47" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" si="38"/>
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48">
         <v>28</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="19">
         <v>45563</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48">
         <v>158</v>
       </c>
-      <c r="H48" s="24">
-        <f t="shared" si="27"/>
+      <c r="H48" s="22">
+        <f t="shared" si="36"/>
         <v>36</v>
       </c>
       <c r="I48" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>158</v>
       </c>
-      <c r="J48" s="24">
-        <f t="shared" si="29"/>
+      <c r="J48" s="22">
+        <f t="shared" si="38"/>
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f>SUM(G49:G55)</f>
+        <v>764</v>
+      </c>
       <c r="D49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49">
         <v>29</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="19">
         <v>45564</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49">
         <v>63</v>
       </c>
-      <c r="H49" s="24">
-        <f t="shared" si="27"/>
+      <c r="H49" s="22">
+        <f t="shared" si="36"/>
         <v>37</v>
       </c>
       <c r="I49" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D50" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50">
         <v>30</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>45565</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50">
         <v>84</v>
       </c>
-      <c r="H50" s="24">
-        <f t="shared" si="27"/>
+      <c r="H50" s="22">
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="I50" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K50">
@@ -10964,809 +11241,825 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D51" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51">
         <v>31</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>45566</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51">
         <v>39</v>
       </c>
-      <c r="H51" s="24">
-        <f t="shared" si="27"/>
+      <c r="H51" s="22">
+        <f t="shared" si="36"/>
         <v>9.5</v>
       </c>
       <c r="I51" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D52" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52">
         <v>32</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>45567</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52">
         <v>65</v>
       </c>
-      <c r="H52" s="24">
-        <f t="shared" si="27"/>
+      <c r="H52" s="22">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I52" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53">
         <v>33</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>45568</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53">
         <v>39</v>
       </c>
-      <c r="H53" s="24">
-        <f t="shared" si="27"/>
+      <c r="H53" s="22">
+        <f t="shared" si="36"/>
         <v>-77</v>
       </c>
       <c r="I53" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D54" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54">
         <v>34</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="19">
         <v>45569</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54">
         <v>219</v>
       </c>
-      <c r="H54" s="24">
-        <f t="shared" si="27"/>
+      <c r="H54" s="22">
+        <f t="shared" si="36"/>
         <v>-108</v>
       </c>
       <c r="I54" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="38"/>
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55">
         <v>35</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="19">
         <v>45570</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55">
         <v>255</v>
       </c>
-      <c r="H55" s="24">
-        <f t="shared" si="27"/>
+      <c r="H55" s="22">
+        <f t="shared" si="36"/>
         <v>70.5</v>
       </c>
       <c r="I55" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>255</v>
       </c>
-      <c r="J55" s="24">
-        <f t="shared" si="29"/>
+      <c r="J55" s="22">
+        <f t="shared" si="38"/>
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f>SUM(G56:G62)</f>
+        <v>679</v>
+      </c>
       <c r="D56" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56">
         <v>36</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="19">
         <v>45571</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56">
         <v>78</v>
       </c>
-      <c r="H56" s="24">
-        <f t="shared" si="27"/>
+      <c r="H56" s="22">
+        <f t="shared" si="36"/>
         <v>112.5</v>
       </c>
       <c r="I56" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D57" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57">
         <v>37</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="19">
         <v>45572</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57">
         <v>30</v>
       </c>
-      <c r="H57" s="24">
-        <f t="shared" si="27"/>
+      <c r="H57" s="22">
+        <f t="shared" si="36"/>
         <v>23.5</v>
       </c>
       <c r="I57" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58">
         <v>38</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="19">
         <v>45573</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58">
         <v>31</v>
       </c>
-      <c r="H58" s="24">
-        <f t="shared" si="27"/>
+      <c r="H58" s="22">
+        <f t="shared" si="36"/>
         <v>-20.5</v>
       </c>
       <c r="I58" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D59" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59">
         <v>39</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>45574</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59">
         <v>71</v>
       </c>
-      <c r="H59" s="24">
-        <f t="shared" si="27"/>
+      <c r="H59" s="22">
+        <f t="shared" si="36"/>
         <v>-32</v>
       </c>
       <c r="I59" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60">
         <v>40</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="19">
         <v>45575</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60">
         <v>95</v>
       </c>
-      <c r="H60" s="24">
-        <f t="shared" si="27"/>
+      <c r="H60" s="22">
+        <f t="shared" si="36"/>
         <v>-69.5</v>
       </c>
       <c r="I60" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D61" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61">
         <v>41</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="19">
         <v>45576</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61">
         <v>210</v>
       </c>
-      <c r="H61" s="24">
-        <f t="shared" si="27"/>
+      <c r="H61" s="22">
+        <f t="shared" si="36"/>
         <v>-34.5</v>
       </c>
       <c r="I61" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>210</v>
       </c>
-      <c r="J61" s="24">
-        <f t="shared" si="29"/>
+      <c r="J61" s="22">
+        <f t="shared" si="38"/>
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62">
         <v>42</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="19">
         <v>45577</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62">
         <v>164</v>
       </c>
-      <c r="H62" s="24">
-        <f t="shared" si="27"/>
+      <c r="H62" s="22">
+        <f t="shared" si="36"/>
         <v>70.5</v>
       </c>
       <c r="I62" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="22">
+        <f t="shared" si="38"/>
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f>SUM(G63:G69)</f>
+        <v>680</v>
+      </c>
       <c r="D63" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63">
         <v>43</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="19">
         <v>45578</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63">
         <v>69</v>
       </c>
-      <c r="H63" s="24">
-        <f t="shared" si="27"/>
+      <c r="H63" s="22">
+        <f t="shared" si="36"/>
         <v>62</v>
       </c>
       <c r="I63" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D64" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64">
         <v>44</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="19">
         <v>45579</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64">
         <v>40</v>
       </c>
-      <c r="H64" s="24">
-        <f t="shared" si="27"/>
+      <c r="H64" s="22">
+        <f t="shared" si="36"/>
         <v>13.5</v>
       </c>
       <c r="I64" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65">
         <v>45</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="19">
         <v>45580</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65">
         <v>42</v>
       </c>
-      <c r="H65" s="24">
-        <f t="shared" si="27"/>
+      <c r="H65" s="22">
+        <f t="shared" si="36"/>
         <v>-14.5</v>
       </c>
       <c r="I65" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66">
         <v>46</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="19">
         <v>45581</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66">
         <v>69</v>
       </c>
-      <c r="H66" s="24">
-        <f t="shared" si="27"/>
+      <c r="H66" s="22">
+        <f t="shared" si="36"/>
         <v>-23.5</v>
       </c>
       <c r="I66" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67">
         <v>47</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="19">
         <v>45582</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67">
         <v>89</v>
       </c>
-      <c r="H67" s="24">
-        <f t="shared" si="27"/>
+      <c r="H67" s="22">
+        <f t="shared" si="36"/>
         <v>-50.5</v>
       </c>
       <c r="I67" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68">
         <v>48</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="19">
         <v>45583</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68">
         <v>170</v>
       </c>
-      <c r="H68" s="24">
-        <f t="shared" si="27"/>
+      <c r="H68" s="22">
+        <f t="shared" si="36"/>
         <v>-56</v>
       </c>
       <c r="I68" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="22">
+        <f t="shared" si="38"/>
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D69" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69">
         <v>49</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="19">
         <v>45584</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69">
         <v>201</v>
       </c>
-      <c r="H69" s="24">
-        <f t="shared" si="27"/>
+      <c r="H69" s="22">
+        <f t="shared" si="36"/>
         <v>50.5</v>
       </c>
       <c r="I69" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>201</v>
       </c>
-      <c r="J69" s="24">
-        <f t="shared" si="29"/>
+      <c r="J69" s="22">
+        <f t="shared" si="38"/>
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f>SUM(G70:G76)</f>
+        <v>554</v>
+      </c>
       <c r="D70" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70">
         <v>50</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="19">
         <v>45585</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70">
         <v>69</v>
       </c>
-      <c r="H70" s="24">
-        <f t="shared" si="27"/>
+      <c r="H70" s="22">
+        <f t="shared" si="36"/>
         <v>82</v>
       </c>
       <c r="I70" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D71" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71">
         <v>51</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="19">
         <v>45586</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71">
         <v>37</v>
       </c>
-      <c r="H71" s="24">
-        <f t="shared" si="27"/>
+      <c r="H71" s="22">
+        <f t="shared" si="36"/>
         <v>-5.5</v>
       </c>
       <c r="I71" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D72" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72">
         <v>52</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="19">
         <v>45587</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72">
         <v>80</v>
       </c>
-      <c r="H72" s="24">
-        <f t="shared" si="27"/>
+      <c r="H72" s="22">
+        <f t="shared" si="36"/>
         <v>-8.5</v>
       </c>
       <c r="I72" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D73" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E73">
         <v>53</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="19">
         <v>45588</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73">
         <v>54</v>
       </c>
-      <c r="H73" s="24">
-        <f t="shared" si="27"/>
+      <c r="H73" s="22">
+        <f t="shared" si="36"/>
         <v>17.5</v>
       </c>
       <c r="I73" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D74" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74">
         <v>54</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="19">
         <v>45589</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74">
         <v>45</v>
       </c>
-      <c r="H74" s="24">
-        <f t="shared" si="27"/>
+      <c r="H74" s="22">
+        <f t="shared" si="36"/>
         <v>-26</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D75" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75">
         <v>55</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="19">
         <v>45590</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75">
         <v>106</v>
       </c>
-      <c r="H75" s="24">
-        <f t="shared" si="27"/>
+      <c r="H75" s="22">
+        <f t="shared" si="36"/>
         <v>-59</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="22">
+        <f t="shared" si="38"/>
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D76" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76">
         <v>56</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="19">
         <v>45591</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G76">
         <v>163</v>
       </c>
-      <c r="H76" s="24">
-        <f t="shared" si="27"/>
+      <c r="H76" s="22">
+        <f t="shared" si="36"/>
         <v>26.5</v>
       </c>
       <c r="I76" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>163</v>
       </c>
-      <c r="J76" s="24">
-        <f t="shared" si="29"/>
+      <c r="J76" s="22">
+        <f t="shared" si="38"/>
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f>SUM(G77:G83)</f>
+        <v>560</v>
+      </c>
       <c r="D77" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77">
         <v>57</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="19">
         <v>45592</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G77">
         <v>53</v>
       </c>
-      <c r="H77" s="24">
-        <f t="shared" si="27"/>
+      <c r="H77" s="22">
+        <f t="shared" si="36"/>
         <v>71</v>
       </c>
       <c r="I77" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D78" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78">
         <v>58</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="19">
         <v>45593</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78">
         <v>21</v>
       </c>
-      <c r="H78" s="24">
-        <f t="shared" si="27"/>
+      <c r="H78" s="22">
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="I78" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D79" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79">
         <v>59</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="19">
         <v>45594</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79">
         <v>47</v>
       </c>
-      <c r="H79" s="24">
-        <f t="shared" si="27"/>
+      <c r="H79" s="22">
+        <f t="shared" si="36"/>
         <v>-12.5</v>
       </c>
       <c r="I79" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D80" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80">
         <v>60</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="19">
         <v>45595</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80">
         <v>46</v>
       </c>
-      <c r="H80" s="24">
-        <f t="shared" si="27"/>
+      <c r="H80" s="22">
+        <f t="shared" si="36"/>
         <v>14.5</v>
       </c>
       <c r="I80" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D81" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81">
         <v>61</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="19">
         <v>45596</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81">
         <v>18</v>
       </c>
-      <c r="H81" s="24">
-        <f t="shared" si="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="36"/>
         <v>-60.5</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K81">
@@ -11774,783 +12067,799 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D82" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82">
         <v>62</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="19">
         <v>45597</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G82">
         <v>167</v>
       </c>
-      <c r="H82" s="24">
-        <f t="shared" si="27"/>
+      <c r="H82" s="22">
+        <f t="shared" si="36"/>
         <v>-95</v>
       </c>
       <c r="I82" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="22">
+        <f t="shared" si="38"/>
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D83" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83">
         <v>63</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="19">
         <v>45598</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83">
         <v>208</v>
       </c>
-      <c r="H83" s="24">
-        <f t="shared" si="27"/>
+      <c r="H83" s="22">
+        <f t="shared" si="36"/>
         <v>67.5</v>
       </c>
       <c r="I83" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>208</v>
       </c>
-      <c r="J83" s="24">
-        <f t="shared" si="29"/>
+      <c r="J83" s="22">
+        <f t="shared" si="38"/>
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f>SUM(G84:G90)</f>
+        <v>633</v>
+      </c>
       <c r="D84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84">
         <v>64</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="19">
         <v>45599</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84">
         <v>32</v>
       </c>
-      <c r="H84" s="24">
-        <f t="shared" si="27"/>
+      <c r="H84" s="22">
+        <f t="shared" si="36"/>
         <v>80</v>
       </c>
       <c r="I84" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85">
         <v>65</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="19">
         <v>45600</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85">
         <v>48</v>
       </c>
-      <c r="H85" s="24">
-        <f t="shared" si="27"/>
+      <c r="H85" s="22">
+        <f t="shared" si="36"/>
         <v>-2.5</v>
       </c>
       <c r="I85" s="18">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="24">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D86" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86">
         <v>66</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="19">
         <v>45601</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86">
         <v>37</v>
       </c>
-      <c r="H86" s="24">
-        <f t="shared" ref="H86:H142" si="30">(G85-G87)/2</f>
+      <c r="H86" s="22">
+        <f t="shared" ref="H86:H142" si="39">(G85-G87)/2</f>
         <v>-20</v>
       </c>
       <c r="I86" s="18">
-        <f t="shared" ref="I86:I142" si="31">IF(AND(G86&gt;G85,G86&gt;G87,G86&gt;100),G86,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="24">
-        <f t="shared" ref="J86:J149" si="32">IF(G86&gt;100,G86,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I86:I142" si="40">IF(AND(G86&gt;G85,G86&gt;G87,G86&gt;100),G86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="22">
+        <f t="shared" ref="J86:J149" si="41">IF(G86&gt;100,G86,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D87" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87">
         <v>67</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="19">
         <v>45602</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87">
         <v>88</v>
       </c>
-      <c r="H87" s="24">
-        <f t="shared" si="30"/>
+      <c r="H87" s="22">
+        <f t="shared" si="39"/>
         <v>-21</v>
       </c>
       <c r="I87" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D88" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88">
         <v>68</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="19">
         <v>45603</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88">
         <v>79</v>
       </c>
-      <c r="H88" s="24">
-        <f t="shared" si="30"/>
+      <c r="H88" s="22">
+        <f t="shared" si="39"/>
         <v>-31</v>
       </c>
       <c r="I88" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D89" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89">
         <v>69</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="19">
         <v>45604</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89">
         <v>150</v>
       </c>
-      <c r="H89" s="24">
-        <f t="shared" si="30"/>
+      <c r="H89" s="22">
+        <f t="shared" si="39"/>
         <v>-60</v>
       </c>
       <c r="I89" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="22">
+        <f t="shared" si="41"/>
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D90" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90">
         <v>70</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F90" s="19">
         <v>45605</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90">
         <v>199</v>
       </c>
-      <c r="H90" s="24">
-        <f t="shared" si="30"/>
+      <c r="H90" s="22">
+        <f t="shared" si="39"/>
         <v>28</v>
       </c>
       <c r="I90" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>199</v>
       </c>
-      <c r="J90" s="24">
-        <f t="shared" si="32"/>
+      <c r="J90" s="22">
+        <f t="shared" si="41"/>
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f>SUM(G91:G97)</f>
+        <v>744</v>
+      </c>
       <c r="D91" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91">
         <v>71</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="19">
         <v>45606</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91">
         <v>94</v>
       </c>
-      <c r="H91" s="24">
-        <f t="shared" si="30"/>
+      <c r="H91" s="22">
+        <f t="shared" si="39"/>
         <v>74.5</v>
       </c>
       <c r="I91" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D92" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92">
         <v>72</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="19">
         <v>45607</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92">
         <v>50</v>
       </c>
-      <c r="H92" s="24">
-        <f t="shared" si="30"/>
+      <c r="H92" s="22">
+        <f t="shared" si="39"/>
         <v>18</v>
       </c>
       <c r="I92" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D93" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93">
         <v>73</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F93" s="19">
         <v>45608</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93">
         <v>58</v>
       </c>
-      <c r="H93" s="24">
-        <f t="shared" si="30"/>
+      <c r="H93" s="22">
+        <f t="shared" si="39"/>
         <v>-43.5</v>
       </c>
       <c r="I93" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D94" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94">
         <v>74</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="19">
         <v>45609</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94">
         <v>137</v>
       </c>
-      <c r="H94" s="24">
-        <f t="shared" si="30"/>
+      <c r="H94" s="22">
+        <f t="shared" si="39"/>
         <v>-12</v>
       </c>
       <c r="I94" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>137</v>
       </c>
-      <c r="J94" s="24">
-        <f t="shared" si="32"/>
+      <c r="J94" s="22">
+        <f t="shared" si="41"/>
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D95" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95">
         <v>75</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F95" s="19">
         <v>45610</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95">
         <v>82</v>
       </c>
-      <c r="H95" s="24">
-        <f t="shared" si="30"/>
+      <c r="H95" s="22">
+        <f t="shared" si="39"/>
         <v>1.5</v>
       </c>
       <c r="I95" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D96" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96">
         <v>76</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="19">
         <v>45611</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96">
         <v>134</v>
       </c>
-      <c r="H96" s="24">
-        <f t="shared" si="30"/>
+      <c r="H96" s="22">
+        <f t="shared" si="39"/>
         <v>-53.5</v>
       </c>
       <c r="I96" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <f t="shared" si="41"/>
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D97" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97">
         <v>77</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F97" s="19">
         <v>45612</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97">
         <v>189</v>
       </c>
-      <c r="H97" s="24">
-        <f t="shared" si="30"/>
+      <c r="H97" s="22">
+        <f t="shared" si="39"/>
         <v>38</v>
       </c>
       <c r="I97" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>189</v>
       </c>
-      <c r="J97" s="24">
-        <f t="shared" si="32"/>
+      <c r="J97" s="22">
+        <f t="shared" si="41"/>
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f>SUM(G98:G104)</f>
+        <v>618</v>
+      </c>
       <c r="D98" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98">
         <v>78</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="19">
         <v>45613</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98">
         <v>58</v>
       </c>
-      <c r="H98" s="24">
-        <f t="shared" si="30"/>
+      <c r="H98" s="22">
+        <f t="shared" si="39"/>
         <v>68</v>
       </c>
       <c r="I98" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D99" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99">
         <v>79</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="19">
         <v>45614</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99">
         <v>53</v>
       </c>
-      <c r="H99" s="24">
-        <f t="shared" si="30"/>
+      <c r="H99" s="22">
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="I99" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D100" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100">
         <v>80</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="19">
         <v>45615</v>
       </c>
-      <c r="G100" s="19">
+      <c r="G100">
         <v>34</v>
       </c>
-      <c r="H100" s="24">
-        <f t="shared" si="30"/>
+      <c r="H100" s="22">
+        <f t="shared" si="39"/>
         <v>-3.5</v>
       </c>
       <c r="I100" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D101" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101">
         <v>81</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F101" s="19">
         <v>45616</v>
       </c>
-      <c r="G101" s="19">
+      <c r="G101">
         <v>60</v>
       </c>
-      <c r="H101" s="24">
-        <f t="shared" si="30"/>
+      <c r="H101" s="22">
+        <f t="shared" si="39"/>
         <v>-17.5</v>
       </c>
       <c r="I101" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D102" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102">
         <v>82</v>
       </c>
-      <c r="F102" s="20">
+      <c r="F102" s="19">
         <v>45617</v>
       </c>
-      <c r="G102" s="19">
+      <c r="G102">
         <v>69</v>
       </c>
-      <c r="H102" s="24">
-        <f t="shared" si="30"/>
+      <c r="H102" s="22">
+        <f t="shared" si="39"/>
         <v>-55</v>
       </c>
       <c r="I102" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D103" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103">
         <v>83</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F103" s="19">
         <v>45618</v>
       </c>
-      <c r="G103" s="19">
+      <c r="G103">
         <v>170</v>
       </c>
-      <c r="H103" s="24">
-        <f t="shared" si="30"/>
+      <c r="H103" s="22">
+        <f t="shared" si="39"/>
         <v>-52.5</v>
       </c>
       <c r="I103" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <f t="shared" si="41"/>
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D104" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104">
         <v>84</v>
       </c>
-      <c r="F104" s="20">
+      <c r="F104" s="19">
         <v>45619</v>
       </c>
-      <c r="G104" s="19">
+      <c r="G104">
         <v>174</v>
       </c>
-      <c r="H104" s="24">
-        <f t="shared" si="30"/>
+      <c r="H104" s="22">
+        <f t="shared" si="39"/>
         <v>53.5</v>
       </c>
       <c r="I104" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>174</v>
       </c>
-      <c r="J104" s="24">
-        <f t="shared" si="32"/>
+      <c r="J104" s="22">
+        <f t="shared" si="41"/>
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f>SUM(G105:G111)</f>
+        <v>600</v>
+      </c>
       <c r="D105" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="19">
+      <c r="E105">
         <v>85</v>
       </c>
-      <c r="F105" s="20">
+      <c r="F105" s="19">
         <v>45620</v>
       </c>
-      <c r="G105" s="19">
+      <c r="G105">
         <v>63</v>
       </c>
-      <c r="H105" s="24">
-        <f t="shared" si="30"/>
+      <c r="H105" s="22">
+        <f t="shared" si="39"/>
         <v>63</v>
       </c>
       <c r="I105" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D106" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106">
         <v>86</v>
       </c>
-      <c r="F106" s="20">
+      <c r="F106" s="19">
         <v>45621</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106">
         <v>48</v>
       </c>
-      <c r="H106" s="24">
-        <f t="shared" si="30"/>
+      <c r="H106" s="22">
+        <f t="shared" si="39"/>
         <v>6.5</v>
       </c>
       <c r="I106" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D107" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107">
         <v>87</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F107" s="19">
         <v>45622</v>
       </c>
-      <c r="G107" s="19">
+      <c r="G107">
         <v>50</v>
       </c>
-      <c r="H107" s="24">
-        <f t="shared" si="30"/>
+      <c r="H107" s="22">
+        <f t="shared" si="39"/>
         <v>-17</v>
       </c>
       <c r="I107" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D108" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108">
         <v>88</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F108" s="19">
         <v>45623</v>
       </c>
-      <c r="G108" s="19">
+      <c r="G108">
         <v>82</v>
       </c>
-      <c r="H108" s="24">
-        <f t="shared" si="30"/>
+      <c r="H108" s="22">
+        <f t="shared" si="39"/>
         <v>-14</v>
       </c>
       <c r="I108" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D109" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="19">
+      <c r="E109">
         <v>89</v>
       </c>
-      <c r="F109" s="20">
+      <c r="F109" s="19">
         <v>45624</v>
       </c>
-      <c r="G109" s="19">
+      <c r="G109">
         <v>78</v>
       </c>
-      <c r="H109" s="24">
-        <f t="shared" si="30"/>
+      <c r="H109" s="22">
+        <f t="shared" si="39"/>
         <v>-9</v>
       </c>
       <c r="I109" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D110" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E110">
         <v>90</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F110" s="19">
         <v>45625</v>
       </c>
-      <c r="G110" s="19">
+      <c r="G110">
         <v>100</v>
       </c>
-      <c r="H110" s="24">
-        <f t="shared" si="30"/>
+      <c r="H110" s="22">
+        <f t="shared" si="39"/>
         <v>-50.5</v>
       </c>
       <c r="I110" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D111" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="19">
+      <c r="E111">
         <v>91</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F111" s="19">
         <v>45626</v>
       </c>
-      <c r="G111" s="19">
+      <c r="G111">
         <v>179</v>
       </c>
-      <c r="H111" s="24">
-        <f t="shared" si="30"/>
+      <c r="H111" s="22">
+        <f t="shared" si="39"/>
         <v>22.5</v>
       </c>
       <c r="I111" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>179</v>
       </c>
-      <c r="J111" s="24">
-        <f t="shared" si="32"/>
+      <c r="J111" s="22">
+        <f t="shared" si="41"/>
         <v>179</v>
       </c>
       <c r="K111">
@@ -12558,445 +12867,457 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f>SUM(G112:G118)</f>
+        <v>674</v>
+      </c>
       <c r="D112" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="19">
+      <c r="E112">
         <v>92</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="19">
         <v>45627</v>
       </c>
-      <c r="G112" s="19">
+      <c r="G112">
         <v>55</v>
       </c>
-      <c r="H112" s="24">
-        <f t="shared" si="30"/>
+      <c r="H112" s="22">
+        <f t="shared" si="39"/>
         <v>59</v>
       </c>
       <c r="I112" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D113" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113">
         <v>93</v>
       </c>
-      <c r="F113" s="20">
+      <c r="F113" s="19">
         <v>45628</v>
       </c>
-      <c r="G113" s="19">
+      <c r="G113">
         <v>61</v>
       </c>
-      <c r="H113" s="24">
-        <f t="shared" si="30"/>
+      <c r="H113" s="22">
+        <f t="shared" si="39"/>
         <v>-1.5</v>
       </c>
       <c r="I113" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D114" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114">
         <v>94</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="19">
         <v>45629</v>
       </c>
-      <c r="G114" s="19">
+      <c r="G114">
         <v>58</v>
       </c>
-      <c r="H114" s="24">
-        <f t="shared" si="30"/>
+      <c r="H114" s="22">
+        <f t="shared" si="39"/>
         <v>-8.5</v>
       </c>
       <c r="I114" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D115" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115">
         <v>95</v>
       </c>
-      <c r="F115" s="20">
+      <c r="F115" s="19">
         <v>45630</v>
       </c>
-      <c r="G115" s="19">
+      <c r="G115">
         <v>78</v>
       </c>
-      <c r="H115" s="24">
-        <f t="shared" si="30"/>
+      <c r="H115" s="22">
+        <f t="shared" si="39"/>
         <v>-16</v>
       </c>
       <c r="I115" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D116" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116">
         <v>96</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="19">
         <v>45631</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G116">
         <v>90</v>
       </c>
-      <c r="H116" s="24">
-        <f t="shared" si="30"/>
+      <c r="H116" s="22">
+        <f t="shared" si="39"/>
         <v>-23.5</v>
       </c>
       <c r="I116" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D117" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117">
         <v>97</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F117" s="19">
         <v>45632</v>
       </c>
-      <c r="G117" s="19">
+      <c r="G117">
         <v>125</v>
       </c>
-      <c r="H117" s="24">
-        <f t="shared" si="30"/>
+      <c r="H117" s="22">
+        <f t="shared" si="39"/>
         <v>-58.5</v>
       </c>
       <c r="I117" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="22">
+        <f t="shared" si="41"/>
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D118" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118">
         <v>98</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="19">
         <v>45633</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118">
         <v>207</v>
       </c>
-      <c r="H118" s="24">
-        <f t="shared" si="30"/>
+      <c r="H118" s="22">
+        <f t="shared" si="39"/>
         <v>17.5</v>
       </c>
       <c r="I118" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>207</v>
       </c>
-      <c r="J118" s="24">
-        <f t="shared" si="32"/>
+      <c r="J118" s="22">
+        <f t="shared" si="41"/>
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f>SUM(G119:G125)</f>
+        <v>779</v>
+      </c>
       <c r="D119" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119">
         <v>99</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="19">
         <v>45634</v>
       </c>
-      <c r="G119" s="19">
+      <c r="G119">
         <v>90</v>
       </c>
-      <c r="H119" s="24">
-        <f t="shared" si="30"/>
+      <c r="H119" s="22">
+        <f t="shared" si="39"/>
         <v>74.5</v>
       </c>
       <c r="I119" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D120" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120">
         <v>100</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="19">
         <v>45635</v>
       </c>
-      <c r="G120" s="19">
+      <c r="G120">
         <v>58</v>
       </c>
-      <c r="H120" s="24">
-        <f t="shared" si="30"/>
+      <c r="H120" s="22">
+        <f t="shared" si="39"/>
         <v>-14</v>
       </c>
       <c r="I120" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D121" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121">
         <v>101</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F121" s="19">
         <v>45636</v>
       </c>
-      <c r="G121" s="19">
+      <c r="G121">
         <v>118</v>
       </c>
-      <c r="H121" s="24">
-        <f t="shared" si="30"/>
+      <c r="H121" s="22">
+        <f t="shared" si="39"/>
         <v>-17</v>
       </c>
       <c r="I121" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>118</v>
       </c>
-      <c r="J121" s="24">
-        <f t="shared" si="32"/>
+      <c r="J121" s="22">
+        <f t="shared" si="41"/>
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122">
         <v>102</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="19">
         <v>45637</v>
       </c>
-      <c r="G122" s="19">
+      <c r="G122">
         <v>92</v>
       </c>
-      <c r="H122" s="24">
-        <f t="shared" si="30"/>
+      <c r="H122" s="22">
+        <f t="shared" si="39"/>
         <v>30</v>
       </c>
       <c r="I122" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D123" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123">
         <v>103</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="19">
         <v>45638</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G123">
         <v>58</v>
       </c>
-      <c r="H123" s="24">
-        <f t="shared" si="30"/>
+      <c r="H123" s="22">
+        <f t="shared" si="39"/>
         <v>-34</v>
       </c>
       <c r="I123" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D124" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124">
         <v>104</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="19">
         <v>45639</v>
       </c>
-      <c r="G124" s="19">
+      <c r="G124">
         <v>160</v>
       </c>
-      <c r="H124" s="24">
-        <f t="shared" si="30"/>
+      <c r="H124" s="22">
+        <f t="shared" si="39"/>
         <v>-72.5</v>
       </c>
       <c r="I124" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="22">
+        <f t="shared" si="41"/>
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D125" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125">
         <v>105</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="19">
         <v>45640</v>
       </c>
-      <c r="G125" s="19">
+      <c r="G125">
         <v>203</v>
       </c>
-      <c r="H125" s="24">
-        <f t="shared" si="30"/>
+      <c r="H125" s="22">
+        <f t="shared" si="39"/>
         <v>41</v>
       </c>
       <c r="I125" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>203</v>
       </c>
-      <c r="J125" s="24">
-        <f t="shared" si="32"/>
+      <c r="J125" s="22">
+        <f t="shared" si="41"/>
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f>SUM(G126:G132)</f>
+        <v>759</v>
+      </c>
       <c r="D126" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126">
         <v>106</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="19">
         <v>45641</v>
       </c>
-      <c r="G126" s="19">
+      <c r="G126">
         <v>78</v>
       </c>
-      <c r="H126" s="24">
-        <f t="shared" si="30"/>
+      <c r="H126" s="22">
+        <f t="shared" si="39"/>
         <v>90.5</v>
       </c>
       <c r="I126" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="19">
+      <c r="E127">
         <v>107</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="19">
         <v>45642</v>
       </c>
-      <c r="G127" s="19">
+      <c r="G127">
         <v>22</v>
       </c>
-      <c r="H127" s="24">
-        <f t="shared" si="30"/>
+      <c r="H127" s="22">
+        <f t="shared" si="39"/>
         <v>5.5</v>
       </c>
       <c r="I127" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D128" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128">
         <v>108</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="19">
         <v>45643</v>
       </c>
-      <c r="G128" s="19">
+      <c r="G128">
         <v>67</v>
       </c>
-      <c r="H128" s="24">
-        <f t="shared" si="30"/>
+      <c r="H128" s="22">
+        <f t="shared" si="39"/>
         <v>-48.5</v>
       </c>
       <c r="I128" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13004,25 +13325,25 @@
       <c r="D129" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129">
         <v>109</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="19">
         <v>45644</v>
       </c>
-      <c r="G129" s="19">
+      <c r="G129">
         <v>119</v>
       </c>
-      <c r="H129" s="24">
-        <f t="shared" si="30"/>
+      <c r="H129" s="22">
+        <f t="shared" si="39"/>
         <v>-34</v>
       </c>
       <c r="I129" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="22">
+        <f t="shared" si="41"/>
         <v>119</v>
       </c>
     </row>
@@ -13030,25 +13351,25 @@
       <c r="D130" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130">
         <v>110</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="19">
         <v>45645</v>
       </c>
-      <c r="G130" s="19">
+      <c r="G130">
         <v>135</v>
       </c>
-      <c r="H130" s="24">
-        <f t="shared" si="30"/>
+      <c r="H130" s="22">
+        <f t="shared" si="39"/>
         <v>-15</v>
       </c>
       <c r="I130" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="22">
+        <f t="shared" si="41"/>
         <v>135</v>
       </c>
     </row>
@@ -13056,25 +13377,25 @@
       <c r="D131" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E131">
         <v>111</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="19">
         <v>45646</v>
       </c>
-      <c r="G131" s="19">
+      <c r="G131">
         <v>149</v>
       </c>
-      <c r="H131" s="24">
-        <f t="shared" si="30"/>
+      <c r="H131" s="22">
+        <f t="shared" si="39"/>
         <v>-27</v>
       </c>
       <c r="I131" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="22">
+        <f t="shared" si="41"/>
         <v>149</v>
       </c>
     </row>
@@ -13082,51 +13403,55 @@
       <c r="D132" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132">
         <v>112</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="19">
         <v>45647</v>
       </c>
-      <c r="G132" s="19">
+      <c r="G132">
         <v>189</v>
       </c>
-      <c r="H132" s="24">
-        <f t="shared" si="30"/>
+      <c r="H132" s="22">
+        <f t="shared" si="39"/>
         <v>25.5</v>
       </c>
       <c r="I132" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>189</v>
       </c>
-      <c r="J132" s="24">
-        <f t="shared" si="32"/>
+      <c r="J132" s="22">
+        <f t="shared" si="41"/>
         <v>189</v>
       </c>
     </row>
     <row r="133" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f>SUM(G133:G139)</f>
+        <v>721</v>
+      </c>
       <c r="D133" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="19">
+      <c r="E133">
         <v>113</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="19">
         <v>45648</v>
       </c>
-      <c r="G133" s="19">
+      <c r="G133">
         <v>98</v>
       </c>
-      <c r="H133" s="24">
-        <f t="shared" si="30"/>
+      <c r="H133" s="22">
+        <f t="shared" si="39"/>
         <v>35.5</v>
       </c>
       <c r="I133" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13134,25 +13459,25 @@
       <c r="D134" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134">
         <v>114</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="19">
         <v>45649</v>
       </c>
-      <c r="G134" s="19">
+      <c r="G134">
         <v>118</v>
       </c>
-      <c r="H134" s="24">
-        <f t="shared" si="30"/>
+      <c r="H134" s="22">
+        <f t="shared" si="39"/>
         <v>-23</v>
       </c>
       <c r="I134" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="22">
+        <f t="shared" si="41"/>
         <v>118</v>
       </c>
     </row>
@@ -13160,25 +13485,25 @@
       <c r="D135" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="19">
+      <c r="E135">
         <v>115</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F135" s="19">
         <v>45650</v>
       </c>
-      <c r="G135" s="19">
+      <c r="G135">
         <v>144</v>
       </c>
-      <c r="H135" s="24">
-        <f t="shared" si="30"/>
+      <c r="H135" s="22">
+        <f t="shared" si="39"/>
         <v>59</v>
       </c>
       <c r="I135" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>144</v>
       </c>
-      <c r="J135" s="24">
-        <f t="shared" si="32"/>
+      <c r="J135" s="22">
+        <f t="shared" si="41"/>
         <v>144</v>
       </c>
     </row>
@@ -13186,25 +13511,25 @@
       <c r="D136" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136">
         <v>116</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="19">
         <v>45651</v>
       </c>
-      <c r="G136" s="19">
-        <v>0</v>
-      </c>
-      <c r="H136" s="24">
-        <f t="shared" si="30"/>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" s="22">
+        <f t="shared" si="39"/>
         <v>46</v>
       </c>
       <c r="I136" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13212,25 +13537,25 @@
       <c r="D137" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137">
         <v>117</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F137" s="19">
         <v>45652</v>
       </c>
-      <c r="G137" s="19">
+      <c r="G137">
         <v>52</v>
       </c>
-      <c r="H137" s="24">
-        <f t="shared" si="30"/>
+      <c r="H137" s="22">
+        <f t="shared" si="39"/>
         <v>-77.5</v>
       </c>
       <c r="I137" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13238,25 +13563,25 @@
       <c r="D138" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138">
         <v>118</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="19">
         <v>45653</v>
       </c>
-      <c r="G138" s="19">
+      <c r="G138">
         <v>155</v>
       </c>
-      <c r="H138" s="24">
-        <f t="shared" si="30"/>
+      <c r="H138" s="22">
+        <f t="shared" si="39"/>
         <v>-51</v>
       </c>
       <c r="I138" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>155</v>
       </c>
-      <c r="J138" s="24">
-        <f t="shared" si="32"/>
+      <c r="J138" s="22">
+        <f t="shared" si="41"/>
         <v>155</v>
       </c>
     </row>
@@ -13264,51 +13589,55 @@
       <c r="D139" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139">
         <v>119</v>
       </c>
-      <c r="F139" s="20">
+      <c r="F139" s="19">
         <v>45654</v>
       </c>
-      <c r="G139" s="19">
+      <c r="G139">
         <v>154</v>
       </c>
-      <c r="H139" s="24">
-        <f t="shared" si="30"/>
+      <c r="H139" s="22">
+        <f t="shared" si="39"/>
         <v>46.5</v>
       </c>
       <c r="I139" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="22">
+        <f t="shared" si="41"/>
         <v>154</v>
       </c>
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f>SUM(G140:G146)</f>
+        <v>716</v>
+      </c>
       <c r="D140" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140">
         <v>120</v>
       </c>
-      <c r="F140" s="20">
+      <c r="F140" s="19">
         <v>45655</v>
       </c>
-      <c r="G140" s="19">
+      <c r="G140">
         <v>62</v>
       </c>
-      <c r="H140" s="24">
-        <f t="shared" si="30"/>
+      <c r="H140" s="22">
+        <f t="shared" si="39"/>
         <v>38.5</v>
       </c>
       <c r="I140" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13316,52 +13645,52 @@
       <c r="D141" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E141">
         <v>121</v>
       </c>
-      <c r="F141" s="20">
+      <c r="F141" s="19">
         <v>45656</v>
       </c>
-      <c r="G141" s="19">
+      <c r="G141">
         <v>77</v>
       </c>
-      <c r="H141" s="24">
-        <f t="shared" si="30"/>
+      <c r="H141" s="22">
+        <f t="shared" si="39"/>
         <v>-62</v>
       </c>
       <c r="I141" s="18">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C142" s="10"/>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="22">
+      <c r="E142" s="10">
         <v>122</v>
       </c>
-      <c r="F142" s="23">
+      <c r="F142" s="21">
         <v>45657</v>
       </c>
-      <c r="G142" s="22">
+      <c r="G142" s="10">
         <v>186</v>
       </c>
-      <c r="H142" s="24">
-        <f t="shared" si="30"/>
+      <c r="H142" s="22">
+        <f t="shared" si="39"/>
         <v>13.5</v>
       </c>
       <c r="I142" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>186</v>
       </c>
-      <c r="J142" s="24">
-        <f t="shared" si="32"/>
+      <c r="J142" s="22">
+        <f t="shared" si="41"/>
         <v>186</v>
       </c>
       <c r="K142">
@@ -13373,16 +13702,16 @@
       <c r="D143" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="19">
+      <c r="E143">
         <v>123</v>
       </c>
-      <c r="F143" s="20">
+      <c r="F143" s="19">
         <v>45658</v>
       </c>
-      <c r="G143" s="19">
+      <c r="G143">
         <v>50</v>
       </c>
-      <c r="H143" s="24">
+      <c r="H143" s="22">
         <f>(G142-G144)/2</f>
         <v>64.5</v>
       </c>
@@ -13390,8 +13719,8 @@
         <f>IF(AND(G143&gt;G142,G143&gt;G144,G143&gt;100),G143,0)</f>
         <v>0</v>
       </c>
-      <c r="J143" s="24">
-        <f t="shared" si="32"/>
+      <c r="J143" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13399,779 +13728,795 @@
       <c r="D144" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144">
         <v>124</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F144" s="19">
         <v>45659</v>
       </c>
-      <c r="G144" s="19">
+      <c r="G144">
         <v>57</v>
       </c>
-      <c r="H144" s="24">
-        <f t="shared" ref="H144:H192" si="33">(G143-G145)/2</f>
+      <c r="H144" s="22">
+        <f t="shared" ref="H144:H192" si="42">(G143-G145)/2</f>
         <v>-43.5</v>
       </c>
       <c r="I144" s="18">
-        <f t="shared" ref="I144:I192" si="34">IF(AND(G144&gt;G143,G144&gt;G145,G144&gt;100),G144,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J144" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I144:I192" si="43">IF(AND(G144&gt;G143,G144&gt;G145,G144&gt;100),G144,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D145" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145">
         <v>125</v>
       </c>
-      <c r="F145" s="20">
+      <c r="F145" s="19">
         <v>45660</v>
       </c>
-      <c r="G145" s="19">
+      <c r="G145">
         <v>137</v>
       </c>
-      <c r="H145" s="24">
-        <f t="shared" si="33"/>
+      <c r="H145" s="22">
+        <f t="shared" si="42"/>
         <v>-45</v>
       </c>
       <c r="I145" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="22">
+        <f t="shared" si="41"/>
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D146" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146">
         <v>126</v>
       </c>
-      <c r="F146" s="20">
+      <c r="F146" s="19">
         <v>45661</v>
       </c>
-      <c r="G146" s="19">
+      <c r="G146">
         <v>147</v>
       </c>
-      <c r="H146" s="24">
-        <f t="shared" si="33"/>
+      <c r="H146" s="22">
+        <f t="shared" si="42"/>
         <v>55.5</v>
       </c>
       <c r="I146" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>147</v>
       </c>
-      <c r="J146" s="24">
-        <f t="shared" si="32"/>
+      <c r="J146" s="22">
+        <f t="shared" si="41"/>
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f>SUM(G147:G153)</f>
+        <v>485</v>
+      </c>
       <c r="D147" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E147">
         <v>127</v>
       </c>
-      <c r="F147" s="20">
+      <c r="F147" s="19">
         <v>45662</v>
       </c>
-      <c r="G147" s="19">
+      <c r="G147">
         <v>26</v>
       </c>
-      <c r="H147" s="24">
-        <f t="shared" si="33"/>
+      <c r="H147" s="22">
+        <f t="shared" si="42"/>
         <v>54.5</v>
       </c>
       <c r="I147" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D148" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148">
         <v>128</v>
       </c>
-      <c r="F148" s="20">
+      <c r="F148" s="19">
         <v>45663</v>
       </c>
-      <c r="G148" s="19">
+      <c r="G148">
         <v>38</v>
       </c>
-      <c r="H148" s="24">
-        <f t="shared" si="33"/>
+      <c r="H148" s="22">
+        <f t="shared" si="42"/>
         <v>-10</v>
       </c>
       <c r="I148" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D149" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E149">
         <v>129</v>
       </c>
-      <c r="F149" s="20">
+      <c r="F149" s="19">
         <v>45664</v>
       </c>
-      <c r="G149" s="19">
+      <c r="G149">
         <v>46</v>
       </c>
-      <c r="H149" s="24">
-        <f t="shared" si="33"/>
+      <c r="H149" s="22">
+        <f t="shared" si="42"/>
         <v>-5.5</v>
       </c>
       <c r="I149" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="24">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D150" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150">
         <v>130</v>
       </c>
-      <c r="F150" s="20">
+      <c r="F150" s="19">
         <v>45665</v>
       </c>
-      <c r="G150" s="19">
+      <c r="G150">
         <v>49</v>
       </c>
-      <c r="H150" s="24">
-        <f t="shared" si="33"/>
+      <c r="H150" s="22">
+        <f t="shared" si="42"/>
         <v>-3.5</v>
       </c>
       <c r="I150" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="24">
-        <f t="shared" ref="J150:J193" si="35">IF(G150&gt;100,G150,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="22">
+        <f t="shared" ref="J150:J196" si="44">IF(G150&gt;100,G150,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D151" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="19">
+      <c r="E151">
         <v>131</v>
       </c>
-      <c r="F151" s="20">
+      <c r="F151" s="19">
         <v>45666</v>
       </c>
-      <c r="G151" s="19">
+      <c r="G151">
         <v>53</v>
       </c>
-      <c r="H151" s="24">
-        <f t="shared" si="33"/>
+      <c r="H151" s="22">
+        <f t="shared" si="42"/>
         <v>-12</v>
       </c>
       <c r="I151" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D152" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152">
         <v>132</v>
       </c>
-      <c r="F152" s="20">
+      <c r="F152" s="19">
         <v>45667</v>
       </c>
-      <c r="G152" s="19">
+      <c r="G152">
         <v>73</v>
       </c>
-      <c r="H152" s="24">
-        <f t="shared" si="33"/>
+      <c r="H152" s="22">
+        <f t="shared" si="42"/>
         <v>-73.5</v>
       </c>
       <c r="I152" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D153" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="19">
+      <c r="E153">
         <v>133</v>
       </c>
-      <c r="F153" s="20">
+      <c r="F153" s="19">
         <v>45668</v>
       </c>
-      <c r="G153" s="19">
+      <c r="G153">
         <v>200</v>
       </c>
-      <c r="H153" s="24">
-        <f t="shared" si="33"/>
+      <c r="H153" s="22">
+        <f t="shared" si="42"/>
         <v>17.5</v>
       </c>
       <c r="I153" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>200</v>
       </c>
-      <c r="J153" s="24">
-        <f t="shared" si="35"/>
+      <c r="J153" s="22">
+        <f t="shared" si="44"/>
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f>SUM(G154:G160)</f>
+        <v>538</v>
+      </c>
       <c r="D154" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154">
         <v>134</v>
       </c>
-      <c r="F154" s="20">
+      <c r="F154" s="19">
         <v>45669</v>
       </c>
-      <c r="G154" s="19">
+      <c r="G154">
         <v>38</v>
       </c>
-      <c r="H154" s="24">
-        <f t="shared" si="33"/>
+      <c r="H154" s="22">
+        <f t="shared" si="42"/>
         <v>92</v>
       </c>
       <c r="I154" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D155" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E155">
         <v>135</v>
       </c>
-      <c r="F155" s="20">
+      <c r="F155" s="19">
         <v>45670</v>
       </c>
-      <c r="G155" s="19">
+      <c r="G155">
         <v>16</v>
       </c>
-      <c r="H155" s="24">
-        <f t="shared" si="33"/>
+      <c r="H155" s="22">
+        <f t="shared" si="42"/>
         <v>-3.5</v>
       </c>
       <c r="I155" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D156" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156">
         <v>136</v>
       </c>
-      <c r="F156" s="20">
+      <c r="F156" s="19">
         <v>45671</v>
       </c>
-      <c r="G156" s="19">
+      <c r="G156">
         <v>45</v>
       </c>
-      <c r="H156" s="24">
-        <f t="shared" si="33"/>
+      <c r="H156" s="22">
+        <f t="shared" si="42"/>
         <v>-18</v>
       </c>
       <c r="I156" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D157" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E157" s="19">
+      <c r="E157">
         <v>137</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="19">
         <v>45672</v>
       </c>
-      <c r="G157" s="19">
+      <c r="G157">
         <v>52</v>
       </c>
-      <c r="H157" s="24">
-        <f t="shared" si="33"/>
+      <c r="H157" s="22">
+        <f t="shared" si="42"/>
         <v>3.5</v>
       </c>
       <c r="I157" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D158" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158">
         <v>138</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="19">
         <v>45673</v>
       </c>
-      <c r="G158" s="19">
+      <c r="G158">
         <v>38</v>
       </c>
-      <c r="H158" s="24">
-        <f t="shared" si="33"/>
+      <c r="H158" s="22">
+        <f t="shared" si="42"/>
         <v>-62</v>
       </c>
       <c r="I158" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D159" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="19">
+      <c r="E159">
         <v>139</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="19">
         <v>45674</v>
       </c>
-      <c r="G159" s="19">
+      <c r="G159">
         <v>176</v>
       </c>
-      <c r="H159" s="24">
-        <f t="shared" si="33"/>
+      <c r="H159" s="22">
+        <f t="shared" si="42"/>
         <v>-67.5</v>
       </c>
       <c r="I159" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>176</v>
       </c>
-      <c r="J159" s="24">
-        <f t="shared" si="35"/>
+      <c r="J159" s="22">
+        <f t="shared" si="44"/>
         <v>176</v>
       </c>
     </row>
-    <row r="160" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D160" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E160">
         <v>140</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="19">
         <v>45675</v>
       </c>
-      <c r="G160" s="19">
+      <c r="G160">
         <v>173</v>
       </c>
-      <c r="H160" s="24">
-        <f t="shared" si="33"/>
+      <c r="H160" s="22">
+        <f t="shared" si="42"/>
         <v>51.5</v>
       </c>
       <c r="I160" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="22">
+        <f t="shared" si="44"/>
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f>SUM(G161:G167)</f>
+        <v>555</v>
+      </c>
       <c r="D161" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="19">
+      <c r="E161">
         <v>141</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="19">
         <v>45676</v>
       </c>
-      <c r="G161" s="19">
+      <c r="G161">
         <v>73</v>
       </c>
-      <c r="H161" s="24">
-        <f t="shared" si="33"/>
+      <c r="H161" s="22">
+        <f t="shared" si="42"/>
         <v>86.5</v>
       </c>
       <c r="I161" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D162" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="19">
+      <c r="E162">
         <v>142</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="19">
         <v>45677</v>
       </c>
-      <c r="G162" s="19">
-        <v>0</v>
-      </c>
-      <c r="H162" s="24">
-        <f t="shared" si="33"/>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" s="22">
+        <f t="shared" si="42"/>
         <v>27</v>
       </c>
       <c r="I162" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D163" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="19">
+      <c r="E163">
         <v>143</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="19">
         <v>45678</v>
       </c>
-      <c r="G163" s="19">
+      <c r="G163">
         <v>19</v>
       </c>
-      <c r="H163" s="24">
-        <f t="shared" si="33"/>
+      <c r="H163" s="22">
+        <f t="shared" si="42"/>
         <v>-28.5</v>
       </c>
       <c r="I163" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D164" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164">
         <v>144</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="19">
         <v>45679</v>
       </c>
-      <c r="G164" s="19">
+      <c r="G164">
         <v>57</v>
       </c>
-      <c r="H164" s="24">
-        <f t="shared" si="33"/>
+      <c r="H164" s="22">
+        <f t="shared" si="42"/>
         <v>-13</v>
       </c>
       <c r="I164" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D165" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165">
         <v>145</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="19">
         <v>45680</v>
       </c>
-      <c r="G165" s="19">
+      <c r="G165">
         <v>45</v>
       </c>
-      <c r="H165" s="24">
-        <f t="shared" si="33"/>
+      <c r="H165" s="22">
+        <f t="shared" si="42"/>
         <v>-54</v>
       </c>
       <c r="I165" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D166" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166">
         <v>146</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="19">
         <v>45681</v>
       </c>
-      <c r="G166" s="19">
+      <c r="G166">
         <v>165</v>
       </c>
-      <c r="H166" s="24">
-        <f t="shared" si="33"/>
+      <c r="H166" s="22">
+        <f t="shared" si="42"/>
         <v>-75.5</v>
       </c>
       <c r="I166" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J166" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="22">
+        <f t="shared" si="44"/>
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D167" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E167">
         <v>147</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="19">
         <v>45682</v>
       </c>
-      <c r="G167" s="19">
+      <c r="G167">
         <v>196</v>
       </c>
-      <c r="H167" s="24">
-        <f t="shared" si="33"/>
+      <c r="H167" s="22">
+        <f t="shared" si="42"/>
         <v>60.5</v>
       </c>
       <c r="I167" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>196</v>
       </c>
-      <c r="J167" s="24">
-        <f t="shared" si="35"/>
+      <c r="J167" s="22">
+        <f t="shared" si="44"/>
         <v>196</v>
       </c>
     </row>
-    <row r="168" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f>SUM(G168:G174)</f>
+        <v>567</v>
+      </c>
       <c r="D168" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E168">
         <v>148</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="19">
         <v>45683</v>
       </c>
-      <c r="G168" s="19">
+      <c r="G168">
         <v>44</v>
       </c>
-      <c r="H168" s="24">
-        <f t="shared" si="33"/>
+      <c r="H168" s="22">
+        <f t="shared" si="42"/>
         <v>72</v>
       </c>
       <c r="I168" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D169" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="19">
+      <c r="E169">
         <v>149</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="19">
         <v>45684</v>
       </c>
-      <c r="G169" s="19">
+      <c r="G169">
         <v>52</v>
       </c>
-      <c r="H169" s="24">
-        <f t="shared" si="33"/>
+      <c r="H169" s="22">
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="I169" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D170" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170">
         <v>150</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="19">
         <v>45685</v>
       </c>
-      <c r="G170" s="19">
+      <c r="G170">
         <v>48</v>
       </c>
-      <c r="H170" s="24">
-        <f t="shared" si="33"/>
+      <c r="H170" s="22">
+        <f t="shared" si="42"/>
         <v>9.5</v>
       </c>
       <c r="I170" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D171" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="19">
+      <c r="E171">
         <v>151</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="19">
         <v>45686</v>
       </c>
-      <c r="G171" s="19">
+      <c r="G171">
         <v>33</v>
       </c>
-      <c r="H171" s="24">
-        <f t="shared" si="33"/>
+      <c r="H171" s="22">
+        <f t="shared" si="42"/>
         <v>-13</v>
       </c>
       <c r="I171" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D172" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E172">
         <v>152</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="19">
         <v>45687</v>
       </c>
-      <c r="G172" s="19">
+      <c r="G172">
         <v>74</v>
       </c>
-      <c r="H172" s="24">
-        <f t="shared" si="33"/>
+      <c r="H172" s="22">
+        <f t="shared" si="42"/>
         <v>-54.5</v>
       </c>
       <c r="I172" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D173" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E173">
         <v>153</v>
       </c>
-      <c r="F173" s="20">
+      <c r="F173" s="19">
         <v>45688</v>
       </c>
-      <c r="G173" s="19">
+      <c r="G173">
         <v>142</v>
       </c>
-      <c r="H173" s="24">
-        <f t="shared" si="33"/>
+      <c r="H173" s="22">
+        <f t="shared" si="42"/>
         <v>-50</v>
       </c>
       <c r="I173" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="22">
+        <f t="shared" si="44"/>
         <v>142</v>
       </c>
       <c r="K173">
@@ -14179,525 +14524,562 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="174" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D174" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174">
         <v>154</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="19">
         <v>45689</v>
       </c>
-      <c r="G174" s="19">
+      <c r="G174">
         <v>174</v>
       </c>
-      <c r="H174" s="24">
-        <f t="shared" si="33"/>
+      <c r="H174" s="22">
+        <f t="shared" si="42"/>
         <v>40.5</v>
       </c>
       <c r="I174" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>174</v>
       </c>
-      <c r="J174" s="24">
-        <f t="shared" si="35"/>
+      <c r="J174" s="22">
+        <f t="shared" si="44"/>
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <f>SUM(G175:G181)</f>
+        <v>490</v>
+      </c>
       <c r="D175" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="19">
+      <c r="E175">
         <v>155</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="19">
         <v>45690</v>
       </c>
-      <c r="G175" s="19">
+      <c r="G175">
         <v>61</v>
       </c>
-      <c r="H175" s="24">
-        <f t="shared" si="33"/>
+      <c r="H175" s="22">
+        <f t="shared" si="42"/>
         <v>69</v>
       </c>
       <c r="I175" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="4:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D176" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E176">
         <v>156</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="19">
         <v>45691</v>
       </c>
-      <c r="G176" s="19">
+      <c r="G176">
         <v>36</v>
       </c>
-      <c r="H176" s="24">
-        <f t="shared" si="33"/>
+      <c r="H176" s="22">
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="I176" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D177" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="19">
+      <c r="E177">
         <v>157</v>
       </c>
-      <c r="F177" s="20">
+      <c r="F177" s="19">
         <v>45692</v>
       </c>
-      <c r="G177" s="19">
+      <c r="G177">
         <v>45</v>
       </c>
-      <c r="H177" s="24">
-        <f t="shared" si="33"/>
+      <c r="H177" s="22">
+        <f t="shared" si="42"/>
         <v>-6.5</v>
       </c>
       <c r="I177" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D178" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E178">
         <v>158</v>
       </c>
-      <c r="F178" s="20">
+      <c r="F178" s="19">
         <v>45693</v>
       </c>
-      <c r="G178" s="19">
+      <c r="G178">
         <v>49</v>
       </c>
-      <c r="H178" s="24">
-        <f t="shared" si="33"/>
+      <c r="H178" s="22">
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="I178" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D179" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E179">
         <v>159</v>
       </c>
-      <c r="F179" s="20">
+      <c r="F179" s="19">
         <v>45694</v>
       </c>
-      <c r="G179" s="19">
+      <c r="G179">
         <v>36</v>
       </c>
-      <c r="H179" s="24">
-        <f t="shared" si="33"/>
+      <c r="H179" s="22">
+        <f t="shared" si="42"/>
         <v>-28.5</v>
       </c>
       <c r="I179" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D180" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180">
         <v>160</v>
       </c>
-      <c r="F180" s="20">
+      <c r="F180" s="19">
         <v>45695</v>
       </c>
-      <c r="G180" s="19">
+      <c r="G180">
         <v>106</v>
       </c>
-      <c r="H180" s="24">
-        <f t="shared" si="33"/>
+      <c r="H180" s="22">
+        <f t="shared" si="42"/>
         <v>-60.5</v>
       </c>
       <c r="I180" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J180" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="22">
+        <f t="shared" si="44"/>
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D181" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="19">
+      <c r="E181">
         <v>161</v>
       </c>
-      <c r="F181" s="20">
+      <c r="F181" s="19">
         <v>45696</v>
       </c>
-      <c r="G181" s="19">
+      <c r="G181">
         <v>157</v>
       </c>
-      <c r="H181" s="24">
-        <f t="shared" si="33"/>
+      <c r="H181" s="22">
+        <f t="shared" si="42"/>
         <v>53</v>
       </c>
       <c r="I181" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>157</v>
       </c>
-      <c r="J181" s="24">
-        <f t="shared" si="35"/>
+      <c r="J181" s="22">
+        <f t="shared" si="44"/>
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f>SUM(G182:G188)</f>
+        <v>644</v>
+      </c>
       <c r="D182" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182">
         <v>162</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="19">
         <v>45697</v>
       </c>
-      <c r="G182" s="19">
-        <v>0</v>
-      </c>
-      <c r="H182" s="24">
-        <f t="shared" si="33"/>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" s="22">
+        <f t="shared" si="42"/>
         <v>52.5</v>
       </c>
       <c r="I182" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D183" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E183" s="19">
+      <c r="E183">
         <v>163</v>
       </c>
-      <c r="F183" s="20">
+      <c r="F183" s="19">
         <v>45698</v>
       </c>
-      <c r="G183" s="19">
+      <c r="G183">
         <v>52</v>
       </c>
-      <c r="H183" s="24">
-        <f t="shared" si="33"/>
+      <c r="H183" s="22">
+        <f t="shared" si="42"/>
         <v>-18</v>
       </c>
       <c r="I183" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J183" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D184" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E184">
         <v>164</v>
       </c>
-      <c r="F184" s="20">
+      <c r="F184" s="19">
         <v>45699</v>
       </c>
-      <c r="G184" s="19">
+      <c r="G184">
         <v>36</v>
       </c>
-      <c r="H184" s="24">
-        <f t="shared" si="33"/>
+      <c r="H184" s="22">
+        <f t="shared" si="42"/>
         <v>11.5</v>
       </c>
       <c r="I184" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J184" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D185" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E185" s="19">
+      <c r="E185">
         <v>165</v>
       </c>
-      <c r="F185" s="20">
+      <c r="F185" s="19">
         <v>45700</v>
       </c>
-      <c r="G185" s="19">
+      <c r="G185">
         <v>29</v>
       </c>
-      <c r="H185" s="24">
-        <f t="shared" si="33"/>
+      <c r="H185" s="22">
+        <f t="shared" si="42"/>
         <v>-14.5</v>
       </c>
       <c r="I185" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J185" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D186" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E186">
         <v>166</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="19">
         <v>45701</v>
       </c>
-      <c r="G186" s="19">
+      <c r="G186">
         <v>65</v>
       </c>
-      <c r="H186" s="24">
-        <f t="shared" si="33"/>
+      <c r="H186" s="22">
+        <f t="shared" si="42"/>
         <v>-118</v>
       </c>
       <c r="I186" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D187" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="19">
+      <c r="E187">
         <v>167</v>
       </c>
-      <c r="F187" s="20">
+      <c r="F187" s="19">
         <v>45702</v>
       </c>
-      <c r="G187" s="19">
+      <c r="G187">
         <v>265</v>
       </c>
-      <c r="H187" s="24">
-        <f t="shared" si="33"/>
+      <c r="H187" s="22">
+        <f t="shared" si="42"/>
         <v>-66</v>
       </c>
       <c r="I187" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>265</v>
       </c>
-      <c r="J187" s="24">
-        <f t="shared" si="35"/>
+      <c r="J187" s="22">
+        <f t="shared" si="44"/>
         <v>265</v>
       </c>
     </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D188" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E188" s="19">
+      <c r="E188">
         <v>168</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="19">
         <v>45703</v>
       </c>
-      <c r="G188" s="19">
+      <c r="G188">
         <v>197</v>
       </c>
-      <c r="H188" s="24">
-        <f t="shared" si="33"/>
+      <c r="H188" s="22">
+        <f t="shared" si="42"/>
         <v>84</v>
       </c>
       <c r="I188" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J188" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="22">
+        <f t="shared" si="44"/>
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <f>SUM(G189:G195)</f>
+        <v>620</v>
+      </c>
       <c r="D189" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E189" s="19">
+      <c r="E189">
         <v>169</v>
       </c>
-      <c r="F189" s="20">
+      <c r="F189" s="19">
         <v>45704</v>
       </c>
-      <c r="G189" s="19">
+      <c r="G189">
         <v>97</v>
       </c>
-      <c r="H189" s="24">
-        <f t="shared" si="33"/>
+      <c r="H189" s="22">
+        <f t="shared" si="42"/>
         <v>77.5</v>
       </c>
       <c r="I189" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J189" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D190" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E190">
         <v>170</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="19">
         <v>45705</v>
       </c>
-      <c r="G190" s="19">
+      <c r="G190">
         <v>42</v>
       </c>
-      <c r="H190" s="24">
-        <f t="shared" si="33"/>
+      <c r="H190" s="22">
+        <f t="shared" si="42"/>
         <v>30.5</v>
       </c>
       <c r="I190" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J190" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D191" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E191" s="19">
+      <c r="E191">
         <v>171</v>
       </c>
-      <c r="F191" s="20">
+      <c r="F191" s="19">
         <v>45706</v>
       </c>
-      <c r="G191" s="19">
+      <c r="G191">
         <v>36</v>
       </c>
-      <c r="H191" s="24">
-        <f t="shared" si="33"/>
+      <c r="H191" s="22">
+        <f t="shared" si="42"/>
         <v>-7.5</v>
       </c>
       <c r="I191" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J191" s="24">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="4:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D192" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192">
         <v>172</v>
       </c>
-      <c r="F192" s="20">
+      <c r="F192" s="19">
         <v>45707</v>
       </c>
-      <c r="G192" s="19">
+      <c r="G192">
         <v>57</v>
       </c>
-      <c r="H192" s="24">
-        <f t="shared" si="33"/>
+      <c r="H192" s="22">
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="I192" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J192" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="22">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="25" t="s">
+      <c r="D193" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E193" s="26">
+      <c r="E193" s="24">
         <v>173</v>
       </c>
-      <c r="F193" s="27">
+      <c r="F193" s="25">
         <v>45708</v>
       </c>
-      <c r="G193" s="26">
+      <c r="G193" s="24">
         <v>38</v>
       </c>
-      <c r="H193" s="28">
+      <c r="H193" s="26">
         <f>G193-G192</f>
         <v>-19</v>
       </c>
-      <c r="I193" s="25"/>
-      <c r="J193" s="24">
-        <f t="shared" si="35"/>
+      <c r="I193" s="23"/>
+      <c r="J193" s="22">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K193">
         <f>SUM(G174:G193)*28/20</f>
         <v>2209.1999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G194" s="28">
+        <v>170</v>
+      </c>
+      <c r="J194" s="29">
+        <f t="shared" si="44"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G195" s="28">
+        <v>180</v>
+      </c>
+      <c r="J195" s="29">
+        <f t="shared" si="44"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G196" s="28"/>
+      <c r="J196" s="29">
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14739,7 +15121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z9:AG16">
+  <conditionalFormatting sqref="Z9:AG16 AI9:AP16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14758,6 +15140,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>